--- a/Excel-XLSX/UN-ICO.xlsx
+++ b/Excel-XLSX/UN-ICO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1111">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>78pdHb</t>
+    <t>K5aK3p</t>
   </si>
   <si>
     <t>1969</t>
@@ -3252,7 +3252,7 @@
     <t>804</t>
   </si>
   <si>
-    <t>51196</t>
+    <t>64486</t>
   </si>
   <si>
     <t>805</t>
@@ -3291,27 +3291,27 @@
     <t>816</t>
   </si>
   <si>
-    <t>1144</t>
-  </si>
-  <si>
     <t>817</t>
   </si>
   <si>
     <t>818</t>
   </si>
   <si>
+    <t>1156</t>
+  </si>
+  <si>
     <t>819</t>
   </si>
   <si>
-    <t>1204</t>
-  </si>
-  <si>
     <t>820</t>
   </si>
   <si>
     <t>821</t>
   </si>
   <si>
+    <t>1534</t>
+  </si>
+  <si>
     <t>822</t>
   </si>
   <si>
@@ -3330,9 +3330,6 @@
     <t>827</t>
   </si>
   <si>
-    <t>930958</t>
-  </si>
-  <si>
     <t>828</t>
   </si>
   <si>
@@ -3346,6 +3343,12 @@
   </si>
   <si>
     <t>832</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>834</t>
   </si>
 </sst>
 </file>
@@ -3730,7 +3733,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V833"/>
+  <dimension ref="A1:V835"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -58522,7 +58525,7 @@
         <v>57</v>
       </c>
       <c r="O806" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P806" s="2" t="s">
         <v>34</v>
@@ -58587,13 +58590,13 @@
         <v>32</v>
       </c>
       <c r="N807" s="2" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="O807" s="2" t="s">
         <v>228</v>
       </c>
       <c r="P807" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q807" s="2" t="s">
         <v>34</v>
@@ -58723,10 +58726,10 @@
         <v>32</v>
       </c>
       <c r="N809" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O809" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P809" s="2" t="s">
         <v>34</v>
@@ -58791,7 +58794,7 @@
         <v>32</v>
       </c>
       <c r="N810" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O810" s="2" t="s">
         <v>81</v>
@@ -58809,7 +58812,7 @@
         <v>34</v>
       </c>
       <c r="T810" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="U810" s="1" t="s">
         <v>35</v>
@@ -58859,7 +58862,7 @@
         <v>32</v>
       </c>
       <c r="N811" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O811" s="2" t="s">
         <v>224</v>
@@ -58927,7 +58930,7 @@
         <v>32</v>
       </c>
       <c r="N812" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O812" s="2" t="s">
         <v>34</v>
@@ -59039,16 +59042,16 @@
         <v>1074</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="G814" s="1" t="s">
-        <v>39</v>
+        <v>628</v>
       </c>
       <c r="H814" s="1" t="s">
-        <v>40</v>
+        <v>629</v>
       </c>
       <c r="I814" s="1" t="s">
-        <v>41</v>
+        <v>629</v>
       </c>
       <c r="J814" s="2" t="s">
         <v>29</v>
@@ -59107,16 +59110,16 @@
         <v>1074</v>
       </c>
       <c r="F815" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H815" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I815" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J815" s="2" t="s">
         <v>29</v>
@@ -59131,10 +59134,10 @@
         <v>32</v>
       </c>
       <c r="N815" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="O815" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="P815" s="2" t="s">
         <v>34</v>
@@ -59175,16 +59178,16 @@
         <v>1074</v>
       </c>
       <c r="F816" s="2" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="G816" s="1" t="s">
-        <v>882</v>
+        <v>39</v>
       </c>
       <c r="H816" s="1" t="s">
-        <v>883</v>
+        <v>40</v>
       </c>
       <c r="I816" s="1" t="s">
-        <v>883</v>
+        <v>41</v>
       </c>
       <c r="J816" s="2" t="s">
         <v>29</v>
@@ -59199,10 +59202,10 @@
         <v>32</v>
       </c>
       <c r="N816" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O816" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O816" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P816" s="2" t="s">
         <v>34</v>
@@ -59243,16 +59246,16 @@
         <v>1074</v>
       </c>
       <c r="F817" s="2" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="G817" s="1" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="H817" s="1" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="I817" s="1" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="J817" s="2" t="s">
         <v>29</v>
@@ -59267,10 +59270,10 @@
         <v>32</v>
       </c>
       <c r="N817" s="2" t="s">
-        <v>1091</v>
+        <v>57</v>
       </c>
       <c r="O817" s="2" t="s">
-        <v>621</v>
+        <v>34</v>
       </c>
       <c r="P817" s="2" t="s">
         <v>34</v>
@@ -59305,22 +59308,22 @@
         <v>22</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E818" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="F818" s="2" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="G818" s="1" t="s">
-        <v>987</v>
+        <v>882</v>
       </c>
       <c r="H818" s="1" t="s">
-        <v>988</v>
+        <v>883</v>
       </c>
       <c r="I818" s="1" t="s">
-        <v>989</v>
+        <v>883</v>
       </c>
       <c r="J818" s="2" t="s">
         <v>29</v>
@@ -59373,22 +59376,22 @@
         <v>22</v>
       </c>
       <c r="D819" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E819" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="F819" s="2" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="H819" s="1" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="I819" s="1" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="J819" s="2" t="s">
         <v>29</v>
@@ -59403,10 +59406,10 @@
         <v>32</v>
       </c>
       <c r="N819" s="2" t="s">
-        <v>49</v>
+        <v>1093</v>
       </c>
       <c r="O819" s="2" t="s">
-        <v>78</v>
+        <v>602</v>
       </c>
       <c r="P819" s="2" t="s">
         <v>34</v>
@@ -59421,7 +59424,7 @@
         <v>34</v>
       </c>
       <c r="T819" s="2" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="U819" s="1" t="s">
         <v>35</v>
@@ -59447,16 +59450,16 @@
         <v>1074</v>
       </c>
       <c r="F820" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>200</v>
+        <v>987</v>
       </c>
       <c r="H820" s="1" t="s">
-        <v>201</v>
+        <v>988</v>
       </c>
       <c r="I820" s="1" t="s">
-        <v>201</v>
+        <v>989</v>
       </c>
       <c r="J820" s="2" t="s">
         <v>29</v>
@@ -59471,10 +59474,10 @@
         <v>32</v>
       </c>
       <c r="N820" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="O820" s="2" t="s">
-        <v>1095</v>
+        <v>34</v>
       </c>
       <c r="P820" s="2" t="s">
         <v>34</v>
@@ -59509,22 +59512,22 @@
         <v>22</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E821" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="F821" s="2" t="s">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>663</v>
+        <v>195</v>
       </c>
       <c r="H821" s="1" t="s">
-        <v>664</v>
+        <v>196</v>
       </c>
       <c r="I821" s="1" t="s">
-        <v>665</v>
+        <v>197</v>
       </c>
       <c r="J821" s="2" t="s">
         <v>29</v>
@@ -59539,10 +59542,10 @@
         <v>32</v>
       </c>
       <c r="N821" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="O821" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="P821" s="2" t="s">
         <v>34</v>
@@ -59577,22 +59580,22 @@
         <v>22</v>
       </c>
       <c r="D822" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E822" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="F822" s="2" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="H822" s="1" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="I822" s="1" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="J822" s="2" t="s">
         <v>29</v>
@@ -59607,10 +59610,10 @@
         <v>32</v>
       </c>
       <c r="N822" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="O822" s="2" t="s">
-        <v>38</v>
+        <v>1097</v>
       </c>
       <c r="P822" s="2" t="s">
         <v>34</v>
@@ -59651,16 +59654,16 @@
         <v>1074</v>
       </c>
       <c r="F823" s="2" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>208</v>
+        <v>663</v>
       </c>
       <c r="H823" s="1" t="s">
-        <v>209</v>
+        <v>664</v>
       </c>
       <c r="I823" s="1" t="s">
-        <v>209</v>
+        <v>665</v>
       </c>
       <c r="J823" s="2" t="s">
         <v>29</v>
@@ -59675,10 +59678,10 @@
         <v>32</v>
       </c>
       <c r="N823" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="O823" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P823" s="2" t="s">
         <v>34</v>
@@ -59719,16 +59722,16 @@
         <v>1074</v>
       </c>
       <c r="F824" s="2" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="H824" s="1" t="s">
-        <v>453</v>
+        <v>276</v>
       </c>
       <c r="I824" s="1" t="s">
-        <v>453</v>
+        <v>277</v>
       </c>
       <c r="J824" s="2" t="s">
         <v>29</v>
@@ -59743,10 +59746,10 @@
         <v>32</v>
       </c>
       <c r="N824" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O824" s="2" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="P824" s="2" t="s">
         <v>34</v>
@@ -59787,16 +59790,16 @@
         <v>1074</v>
       </c>
       <c r="F825" s="2" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="H825" s="1" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="I825" s="1" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="J825" s="2" t="s">
         <v>29</v>
@@ -59811,10 +59814,10 @@
         <v>32</v>
       </c>
       <c r="N825" s="2" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="O825" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P825" s="2" t="s">
         <v>34</v>
@@ -59855,16 +59858,16 @@
         <v>1074</v>
       </c>
       <c r="F826" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>564</v>
+        <v>452</v>
       </c>
       <c r="H826" s="1" t="s">
-        <v>565</v>
+        <v>453</v>
       </c>
       <c r="I826" s="1" t="s">
-        <v>565</v>
+        <v>453</v>
       </c>
       <c r="J826" s="2" t="s">
         <v>29</v>
@@ -59879,7 +59882,7 @@
         <v>32</v>
       </c>
       <c r="N826" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="O826" s="2" t="s">
         <v>49</v>
@@ -59923,16 +59926,16 @@
         <v>1074</v>
       </c>
       <c r="F827" s="2" t="s">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="H827" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="I827" s="1" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="J827" s="2" t="s">
         <v>29</v>
@@ -59991,16 +59994,16 @@
         <v>1074</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>724</v>
+        <v>564</v>
       </c>
       <c r="H828" s="1" t="s">
-        <v>725</v>
+        <v>565</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>726</v>
+        <v>565</v>
       </c>
       <c r="J828" s="2" t="s">
         <v>29</v>
@@ -60015,10 +60018,10 @@
         <v>32</v>
       </c>
       <c r="N828" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="O828" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P828" s="2" t="s">
         <v>34</v>
@@ -60030,7 +60033,7 @@
         <v>34</v>
       </c>
       <c r="S828" s="2" t="s">
-        <v>1104</v>
+        <v>34</v>
       </c>
       <c r="T828" s="2" t="s">
         <v>34</v>
@@ -60053,22 +60056,22 @@
         <v>22</v>
       </c>
       <c r="D829" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E829" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="H829" s="1" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="I829" s="1" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="J829" s="2" t="s">
         <v>29</v>
@@ -60083,7 +60086,7 @@
         <v>32</v>
       </c>
       <c r="N829" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="O829" s="2" t="s">
         <v>34</v>
@@ -60121,22 +60124,22 @@
         <v>22</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E830" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="F830" s="2" t="s">
-        <v>216</v>
+        <v>389</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>217</v>
+        <v>724</v>
       </c>
       <c r="H830" s="1" t="s">
-        <v>218</v>
+        <v>725</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>218</v>
+        <v>726</v>
       </c>
       <c r="J830" s="2" t="s">
         <v>29</v>
@@ -60151,10 +60154,10 @@
         <v>32</v>
       </c>
       <c r="N830" s="2" t="s">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="O830" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="P830" s="2" t="s">
         <v>34</v>
@@ -60166,7 +60169,7 @@
         <v>34</v>
       </c>
       <c r="S830" s="2" t="s">
-        <v>34</v>
+        <v>1067</v>
       </c>
       <c r="T830" s="2" t="s">
         <v>34</v>
@@ -60189,22 +60192,22 @@
         <v>22</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E831" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="F831" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G831" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H831" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I831" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J831" s="2" t="s">
         <v>29</v>
@@ -60219,10 +60222,10 @@
         <v>32</v>
       </c>
       <c r="N831" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="O831" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="P831" s="2" t="s">
         <v>34</v>
@@ -60257,22 +60260,22 @@
         <v>22</v>
       </c>
       <c r="D832" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E832" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="F832" s="2" t="s">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>866</v>
+        <v>217</v>
       </c>
       <c r="H832" s="1" t="s">
-        <v>867</v>
+        <v>218</v>
       </c>
       <c r="I832" s="1" t="s">
-        <v>867</v>
+        <v>218</v>
       </c>
       <c r="J832" s="2" t="s">
         <v>29</v>
@@ -60287,10 +60290,10 @@
         <v>32</v>
       </c>
       <c r="N832" s="2" t="s">
-        <v>118</v>
+        <v>320</v>
       </c>
       <c r="O832" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="P832" s="2" t="s">
         <v>34</v>
@@ -60325,60 +60328,196 @@
         <v>22</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E833" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="F833" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G833" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H833" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I833" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J833" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K833" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L833" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M833" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N833" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O833" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P833" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q833" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R833" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S833" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T833" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U833" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V833" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C834" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D834" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E834" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F834" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G834" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H834" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I834" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="J834" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K834" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L834" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M834" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N834" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O834" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P834" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q834" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R834" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S834" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T834" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U834" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V834" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C835" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E835" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F835" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G833" s="1" t="s">
+      <c r="G835" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="H833" s="1" t="s">
+      <c r="H835" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="I833" s="1" t="s">
+      <c r="I835" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="J833" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K833" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L833" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M833" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N833" s="2" t="s">
+      <c r="J835" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K835" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L835" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M835" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N835" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O833" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P833" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q833" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R833" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S833" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T833" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U833" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V833" s="2" t="s">
+      <c r="O835" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P835" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q835" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R835" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S835" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T835" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U835" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V835" s="2" t="s">
         <v>34</v>
       </c>
     </row>
